--- a/test_datas/login_suite/login_test.xlsx
+++ b/test_datas/login_suite/login_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13275" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>测试方法名称</t>
   </si>
@@ -43,7 +43,7 @@
     <t>验证是否能成功登录</t>
   </si>
   <si>
-    <t>否</t>
+    <t>是</t>
   </si>
   <si>
     <t>admin</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>验证错误的用户名和密码能否成功处理</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
@@ -81,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -102,17 +99,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,78 +120,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,15 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,16 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,25 +383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,73 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,61 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,30 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,30 +465,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +494,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,43 +562,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -610,88 +607,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1021,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1092,22 +1089,30 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>"否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
